--- a/biology/Zoologie/Amphibiens_et_reptiles_de_Saint-Barthélemy/Amphibiens_et_reptiles_de_Saint-Barthélemy.xlsx
+++ b/biology/Zoologie/Amphibiens_et_reptiles_de_Saint-Barthélemy/Amphibiens_et_reptiles_de_Saint-Barthélemy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amphibiens_et_reptiles_de_Saint-Barth%C3%A9lemy</t>
+          <t>Amphibiens_et_reptiles_de_Saint-Barthélemy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici la liste des amphibiens  et reptiles  de l’île de Saint-Barthélemy, dans les Petites Antilles. Elle est tirée de la dernière mise à jour de la faune de Saint-Barthélemy[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici la liste des amphibiens  et reptiles  de l’île de Saint-Barthélemy, dans les Petites Antilles. Elle est tirée de la dernière mise à jour de la faune de Saint-Barthélemy.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amphibiens_et_reptiles_de_Saint-Barth%C3%A9lemy</t>
+          <t>Amphibiens_et_reptiles_de_Saint-Barthélemy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Amphibiens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il y a 4 espèces de grenouilles à Saint-Barthélemy : 3 introduites et une endémique mais éteinte aujourd'hui. 
-Grenouilles (Anura)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a 4 espèces de grenouilles à Saint-Barthélemy : 3 introduites et une endémique mais éteinte aujourd'hui. 
+</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amphibiens_et_reptiles_de_Saint-Barth%C3%A9lemy</t>
+          <t>Amphibiens_et_reptiles_de_Saint-Barthélemy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,12 @@
           <t>Reptiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette liste inclut les tortues marines et les espèces introduites, un total de 20 espèces sont reconnues. 
-Tortues  (Testudines)
-Lézards et serpents (Squamata)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste inclut les tortues marines et les espèces introduites, un total de 20 espèces sont reconnues. 
+</t>
         </is>
       </c>
     </row>
